--- a/biology/Médecine/Université_d'État_de_médecine_de_Tver/Université_d'État_de_médecine_de_Tver.xlsx
+++ b/biology/Médecine/Université_d'État_de_médecine_de_Tver/Université_d'État_de_médecine_de_Tver.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Tver</t>
+          <t>Université_d'État_de_médecine_de_Tver</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'université d'État de médecine de Tver (Тверской государственный медицинский университет) est un établissement d'enseignement supérieur spécialisé en études de médecine situé à Tver en Russie. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Tver</t>
+          <t>Université_d'État_de_médecine_de_Tver</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1920, l'institut de médecine dentaire publique est fondé à Petrograd. En 1927, il est transformé en institut dentaire scientifique et pratique de Léningrad et en 1935 en institut dentaire de Léningrad. En 1954, il est transféré dans la ville de Kalinine (Tver aujourd'hui), et l'académie médicale d'État de Tver est née sur sa base[1]. En mars 2015, l'académie devient une université[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1920, l'institut de médecine dentaire publique est fondé à Petrograd. En 1927, il est transformé en institut dentaire scientifique et pratique de Léningrad et en 1935 en institut dentaire de Léningrad. En 1954, il est transféré dans la ville de Kalinine (Tver aujourd'hui), et l'académie médicale d'État de Tver est née sur sa base. En mars 2015, l'académie devient une université.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Tver</t>
+          <t>Université_d'État_de_médecine_de_Tver</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Études</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après le portail de  l'« enseignement russe », l'université comptait en 2011 un nombre de 2 636 étudiants plus 304 étudiants par correspondance. L'université prépare les étudiants selon les spécialités suivantes: medecine générale, pédiatrie, stomatologie, pharmacie, soins infirmiers[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après le portail de  l'« enseignement russe », l'université comptait en 2011 un nombre de 2 636 étudiants plus 304 étudiants par correspondance. L'université prépare les étudiants selon les spécialités suivantes: medecine générale, pédiatrie, stomatologie, pharmacie, soins infirmiers.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Tver</t>
+          <t>Université_d'État_de_médecine_de_Tver</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Relations internationales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'université est en relation avec de nombreuses institutions éducatives et scientifiques de pays étrangers, ainsi qu'avec des organisations internationales. Les progrès les plus significatifs ont été réalisés dans les domaines suivants: 
 organisation du centre éducatif-scientifique-pratique russo-allemand pour la chirurgie endoscopique (département de chirurgie hospitalière);
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Tver</t>
+          <t>Université_d'État_de_médecine_de_Tver</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bâtiment administratif (2-6 rue Sovietskaïa), qui est le plus ancien de l'université, appartenait autrefois au lycée impérial de garçons n° 2, construit entre 1844 et 1859 par Karl Heidenreich. Il se trouve en face du palais d'étape de Tver et répète comme en miroir sa composition architecturale. 
 </t>
